--- a/reference/scratch/riverdata.xlsx
+++ b/reference/scratch/riverdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="riverdata" sheetId="1" state="visible" r:id="rId2"/>
@@ -1320,7 +1320,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5768,11 +5768,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="29534755"/>
-        <c:axId val="57836012"/>
+        <c:axId val="67829437"/>
+        <c:axId val="18423688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="29534755"/>
+        <c:axId val="67829437"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5800,7 +5800,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57836012"/>
+        <c:crossAx val="18423688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5808,7 +5808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57836012"/>
+        <c:axId val="18423688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5845,7 +5845,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29534755"/>
+        <c:crossAx val="67829437"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5893,7 +5893,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -10342,11 +10342,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="50537880"/>
-        <c:axId val="67732195"/>
+        <c:axId val="57828045"/>
+        <c:axId val="79026421"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50537880"/>
+        <c:axId val="57828045"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10374,7 +10374,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67732195"/>
+        <c:crossAx val="79026421"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10382,7 +10382,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67732195"/>
+        <c:axId val="79026421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10419,7 +10419,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50537880"/>
+        <c:crossAx val="57828045"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10467,7 +10467,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -13067,11 +13067,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="88534364"/>
-        <c:axId val="70430103"/>
+        <c:axId val="89675833"/>
+        <c:axId val="67897868"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88534364"/>
+        <c:axId val="89675833"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13099,7 +13099,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70430103"/>
+        <c:crossAx val="67897868"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13107,7 +13107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70430103"/>
+        <c:axId val="67897868"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13144,7 +13144,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88534364"/>
+        <c:crossAx val="89675833"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13294,8 +13294,8 @@
   </sheetPr>
   <dimension ref="A1:Q359"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A308" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F304" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J311" activeCellId="0" sqref="J311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27896,8 +27896,8 @@
   </sheetPr>
   <dimension ref="A1:R205"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J37" activeCellId="0" sqref="J37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G71" activeCellId="0" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.30078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
